--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,15 @@
   <si>
     <t>Number</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,6 +58,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -72,11 +82,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -88,12 +137,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -102,8 +170,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C30" totalsRowShown="0">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Number"/>
-    <tableColumn id="2" name="Date"/>
+    <tableColumn id="1" name="Number" dataDxfId="1"/>
+    <tableColumn id="2" name="Date" dataDxfId="0"/>
     <tableColumn id="3" name="Hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -432,16 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
@@ -451,7 +519,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -473,82 +541,105 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>41885</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="18">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="18">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="18">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="18">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="18">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="18">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="18">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="18">
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="18">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="18">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="18">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="18">
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="2:3" ht="18">
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:3" ht="18">
+      <c r="B17" s="5"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="2:3" ht="18">
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:3" ht="18">
+      <c r="B18" s="5"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="2:3" ht="18">
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:3" ht="18">
+      <c r="B19" s="5"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="2:3" ht="18">
-      <c r="B20" s="4"/>
+    <row r="20" spans="1:3" ht="18">
+      <c r="B20" s="5"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="2:3" ht="18">
-      <c r="B21" s="4"/>
+    <row r="21" spans="1:3" ht="18">
+      <c r="B21" s="5"/>
       <c r="C21" s="4"/>
     </row>
+    <row r="30" spans="1:3" ht="18">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="20">
+      <c r="A31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9">
+        <f>SUM(Table2[Hours])</f>
+        <v>4.75</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:B31"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -143,13 +143,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -552,12 +552,26 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41886</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="18">
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>41887</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="B6" s="5"/>
@@ -627,13 +641,13 @@
       <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="20">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9">
+      <c r="B31" s="9"/>
+      <c r="C31" s="7">
         <f>SUM(Table2[Hours])</f>
-        <v>4.75</v>
+        <v>11.75</v>
       </c>
     </row>
   </sheetData>

--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -31,13 +31,31 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Week 1 Total:</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Working with Wordpress API, discussing where this UROP is headed, sitting in on discussions with Dazza.</t>
+  </si>
+  <si>
+    <t>Code for Boston</t>
+  </si>
+  <si>
+    <t>Week 2 Total:</t>
+  </si>
+  <si>
+    <t>Converting Boston's code into DC Style Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,6 +83,30 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,10 +164,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,14 +188,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -167,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C31" totalsRowShown="0">
+  <autoFilter ref="A1:C31"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Number" dataDxfId="1"/>
     <tableColumn id="2" name="Date" dataDxfId="0"/>
@@ -500,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -518,7 +570,7 @@
     <col min="8" max="8" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -529,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -539,8 +591,11 @@
       <c r="C2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -550,8 +605,11 @@
       <c r="C3" s="4">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18">
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -561,8 +619,9 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -572,48 +631,106 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="18">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="18">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="18">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="18">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="18">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>41889</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>41890</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>41891</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>41893</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>41898</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="18">
+    <row r="12" spans="1:6" ht="18">
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="18">
+    <row r="13" spans="1:6" ht="18">
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="18">
+    <row r="14" spans="1:6" ht="18">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="18">
+    <row r="15" spans="1:6" ht="18">
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="18">
+    <row r="16" spans="1:6" ht="18">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
     </row>
@@ -637,24 +754,30 @@
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="18">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" ht="20">
-      <c r="A31" s="8" t="s">
+    <row r="22" spans="1:3" ht="18">
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" ht="20">
+      <c r="A32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="7">
+      <c r="B32" s="10"/>
+      <c r="C32" s="7">
         <f>SUM(Table2[Hours])</f>
-        <v>11.75</v>
+        <v>26.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A31:B31"/>
+  <mergeCells count="2">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Converting Boston's code into DC Style Code</t>
+  </si>
+  <si>
+    <t>Week 3 Total:</t>
+  </si>
+  <si>
+    <t>Week 4 Total:</t>
+  </si>
+  <si>
+    <t>CIC - Understanding USLM, Converting Boston to USLM</t>
+  </si>
+  <si>
+    <t>Working with Schemas</t>
   </si>
 </sst>
 </file>
@@ -563,8 +575,8 @@
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" customWidth="1"/>
@@ -641,7 +653,7 @@
         <v>41889</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>4</v>
@@ -706,17 +718,49 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>41907</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="18">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41908</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="18">
       <c r="B13" s="5"/>
@@ -768,7 +812,7 @@
       <c r="B32" s="10"/>
       <c r="C32" s="7">
         <f>SUM(Table2[Hours])</f>
-        <v>26.9</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -763,16 +763,37 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>41912</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="18">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>41913</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18">
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>41914</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18">
       <c r="B16" s="5"/>
@@ -812,7 +833,7 @@
       <c r="B32" s="10"/>
       <c r="C32" s="7">
         <f>SUM(Table2[Hours])</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,45 @@
   </si>
   <si>
     <t>Working with Schemas</t>
+  </si>
+  <si>
+    <t>Week 5 Total:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 6 Total: </t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Hours Remaining:</t>
+  </si>
+  <si>
+    <t>Weeks Remaining:</t>
+  </si>
+  <si>
+    <t>Today's Date:</t>
+  </si>
+  <si>
+    <t>Week 7 Total:</t>
+  </si>
+  <si>
+    <t>Working on Drupal</t>
+  </si>
+  <si>
+    <t>Looking at SalesForce and installing more modules on Drupal</t>
+  </si>
+  <si>
+    <t>Working towards the live demo. Prepared the Google Scripts and helped integrate into Wordpress on LegalHackathon.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyped to discuss progress made with Google Scripts where to head next with OIDC and implementing it without Google Apps. </t>
   </si>
 </sst>
 </file>
@@ -176,12 +215,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +248,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,12 +256,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -231,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Number" dataDxfId="1"/>
     <tableColumn id="2" name="Date" dataDxfId="0"/>
@@ -564,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -577,12 +632,11 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -592,8 +646,15 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18">
+      <c r="G1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9">
+        <f ca="1">TODAY()</f>
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -606,8 +667,14 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18">
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9">
+        <v>41987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -617,11 +684,18 @@
       <c r="C3" s="4">
         <v>1.75</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18">
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(E5:E201)</f>
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -631,9 +705,16 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
+      <c r="F4" s="12"/>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <f>141-H3</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -643,9 +724,16 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
+      <c r="F5" s="12"/>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1">
+        <f ca="1">(H2-H1)/7</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -661,9 +749,9 @@
       <c r="E6" s="1">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -674,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18">
+    <row r="8" spans="1:8" ht="18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -688,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18">
+    <row r="9" spans="1:8" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -708,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:8" ht="18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -728,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -742,7 +830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18">
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -762,7 +850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18">
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -772,8 +860,11 @@
       <c r="C13" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18">
+      <c r="F13" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -783,8 +874,9 @@
       <c r="C14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18">
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -794,52 +886,128 @@
       <c r="C15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="18">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="18">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="18">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="18">
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="18">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="18">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="18">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="18">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>41916</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>41917</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>41926</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>41928</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>41931</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="31" spans="1:3" ht="18">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" ht="20">
-      <c r="A32" s="9" t="s">
+    <row r="23" spans="1:6" ht="18">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="20">
+      <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7">
+      <c r="B33" s="11"/>
+      <c r="C33" s="7">
         <f>SUM(Table2[Hours])</f>
-        <v>46</v>
+        <v>57.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A32:B32"/>
+  <mergeCells count="3">
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F13:F16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -249,6 +249,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,9 +260,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -684,7 +684,7 @@
       <c r="C3" s="4">
         <v>1.75</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -692,7 +692,7 @@
       </c>
       <c r="H3" s="1">
         <f>SUM(E5:E201)</f>
-        <v>57.75</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -705,13 +705,13 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1">
         <f>141-H3</f>
-        <v>83.25</v>
+        <v>80.25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -724,7 +724,7 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="E6" s="1">
         <v>13</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="1">
@@ -860,7 +860,7 @@
       <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="18">
       <c r="A15" s="1">
@@ -886,7 +886,7 @@
       <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="18">
       <c r="A16" s="1">
@@ -898,7 +898,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="18">
       <c r="A17" s="1">
@@ -916,7 +916,7 @@
       <c r="E17" s="1">
         <v>13.25</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -973,13 +973,13 @@
         <v>41931</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18">
@@ -994,13 +994,13 @@
       <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:3" ht="20">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7">
         <f>SUM(Table2[Hours])</f>
-        <v>57.75</v>
+        <v>60.75</v>
       </c>
     </row>
   </sheetData>

--- a/UROP/Shreyash/Time Sheet.xlsx
+++ b/UROP/Shreyash/Time Sheet.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
